--- a/THE_2ND.xlsx
+++ b/THE_2ND.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaltofi-my.sharepoint.com/personal/elmeri_perkio_aalto_fi/Documents/Gradu oscun kaa/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_5368BAE5CC004DEBD105C8EDEF694D861360B30E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77337D75-99E7-2546-81CA-F1BA12FDF882}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="11_5368BAE5CC004DEBD105C8EDEF694D861360B30E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EA1B9C-8BB4-A148-B0DD-658E7D9FB0B1}"/>
   <bookViews>
     <workbookView xWindow="9500" yWindow="-28800" windowWidth="30460" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:Q664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -705,8 +705,8 @@
         <v>0.53332999999999997</v>
       </c>
       <c r="L2">
-        <f>'FF5'!B79</f>
-        <v>-2.63</v>
+        <f>'FF5'!B79/100</f>
+        <v>-2.63E-2</v>
       </c>
       <c r="M2">
         <f>'FF5'!C79</f>
@@ -41021,8 +41021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0190456A-C2ED-4540-8DD0-AD2771E205B1}">
   <dimension ref="A1:G739"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I61" sqref="I15:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
